--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,87 +43,90 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -133,49 +136,43 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>join</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>corona</t>
@@ -544,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
         <v>31</v>
@@ -626,16 +623,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8253424657534246</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7837837837837838</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -773,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7631578947368421</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8302872062663186</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5932203389830508</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8181818181818182</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5608465608465608</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="C9">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="D9">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5490196078431373</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.7924528301886793</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5368217054263565</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C11">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.7887323943661971</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1052,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4697986577181208</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4133333333333333</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1147,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1152,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3095238095238095</v>
+        <v>0.3</v>
       </c>
       <c r="C14">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7734375</v>
+        <v>0.7875</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1202,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,13 +1252,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1662198391420912</v>
+        <v>0.160857908847185</v>
       </c>
       <c r="C16">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1273,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7578125</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1297,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1305,113 +1302,89 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1033333333333333</v>
+        <v>0.01579116983564293</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>269</v>
+        <v>3054</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <v>27</v>
+      </c>
+      <c r="M17">
+        <v>27</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K17">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L17">
-        <v>35</v>
-      </c>
-      <c r="M17">
-        <v>35</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="K18">
+        <v>0.75</v>
+      </c>
+      <c r="L18">
+        <v>36</v>
+      </c>
+      <c r="M18">
+        <v>36</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.01064516129032258</v>
-      </c>
-      <c r="C18">
-        <v>33</v>
-      </c>
-      <c r="D18">
-        <v>40</v>
-      </c>
-      <c r="E18">
-        <v>0.17</v>
-      </c>
-      <c r="F18">
-        <v>0.83</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>3067</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.7301587301587301</v>
-      </c>
-      <c r="L18">
-        <v>46</v>
-      </c>
-      <c r="M18">
-        <v>46</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>0.6976744186046512</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1423,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.6944444444444444</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1449,12 +1422,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
         <v>0.675</v>
@@ -1480,16 +1453,16 @@
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.65</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L22">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="M22">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1501,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.6067796610169491</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L23">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="M23">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1527,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.5857740585774058</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L24">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1553,12 +1526,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>99</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>0.5857142857142857</v>
@@ -1584,16 +1557,16 @@
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.58</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1605,47 +1578,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.574468085106383</v>
+        <v>0.5748299319727891</v>
       </c>
       <c r="L27">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.5730337078651685</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1657,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.5692307692307692</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1683,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.5098039215686274</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1709,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.3835616438356164</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1735,33 +1708,33 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.01034158570980884</v>
+        <v>0.01223721368057734</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N32">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="O32">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>3158</v>
+        <v>3148</v>
       </c>
     </row>
   </sheetData>
